--- a/Scrum 1/Product Owner Documentation/Capacité01.xlsx
+++ b/Scrum 1/Product Owner Documentation/Capacité01.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catal\OneDrive\Desktop\Learning_to_Code\projet-developpement-applications\projet-developpement-applications\Scrum 1\Product Owner Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782BA7C-1446-44CA-BDFE-B50C6AF58E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="330" windowWidth="16230" windowHeight="12780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,11 +317,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,9 +403,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,6 +455,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,22 +648,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.46484375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.65" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.65" thickTop="1">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="14.65" thickBot="1">
+    <row r="3" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -616,8 +679,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" thickTop="1" thickBot="1"/>
-    <row r="5" spans="2:5" ht="14.65" thickTop="1">
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -646,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -661,7 +724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.65" thickBot="1">
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
@@ -676,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" thickTop="1" thickBot="1">
+    <row r="9" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
@@ -691,24 +754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
